--- a/mobi_client/mobi_client/mobi_config/excel/AVGScripts/迷宫副本/2 天目剧院.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/AVGScripts/迷宫副本/2 天目剧院.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="17790" tabRatio="928"/>
+    <workbookView windowWidth="28125" windowHeight="12420" tabRatio="928"/>
   </bookViews>
   <sheets>
     <sheet name="maze2_part0" sheetId="19" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="67">
   <si>
     <t>说明</t>
   </si>
@@ -341,20 +341,20 @@
     <t>duheng</t>
   </si>
   <si>
-    <t>新人，最近的状态怎么样？还适应吗？</t>
+    <t>{#杜衡思考动作}新人，最近的状态怎么样？还适应吗？</t>
   </si>
   <si>
     <t>可选对话框</t>
   </si>
   <si>
-    <t>$$赶紧十足==&gt;继续
+    <t>$$干劲十足==&gt;继续
 $$累到崩溃==&gt;继续</t>
   </si>
   <si>
-    <t>以你现在的资质，已经可以交付给你更危险的任务了。</t>
-  </si>
-  <si>
-    <t>是关于『共生型异质物』的。</t>
+    <t>你现在的资质，已经可以去执行更危险的任务了。</t>
+  </si>
+  <si>
+    <t>{#杜衡思考动作恢复}是关于『共生型异质物』的。</t>
   </si>
   <si>
     <t>wo</t>
@@ -363,34 +363,46 @@
     <t>那是什么？</t>
   </si>
   <si>
-    <t>是一种需要宿主才能发挥出力量的异质物，之前遇到过的水晶和超感头环，都属于『共生型异质物』的范畴。</t>
+    <t>{#杜衡紧张动作}是一种需要宿主才能发挥出力量的异质物，之前遇到过的水晶和超感头环，</t>
+  </si>
+  <si>
+    <t>都属于『共生型异质物』的范畴。</t>
   </si>
   <si>
     <t>在他们与选择的宿主共生后，也能大幅提高宿主的能力。</t>
   </si>
   <si>
-    <t>昭离公馆以及全世界范围内的STS都会用这种『共生型异质物』来为收容的异质物们增强力量。</t>
-  </si>
-  <si>
-    <t>从目前掌握的信息来看，我们即将面对的敌人们已经掌握了这种技术，因此，不断扩充和储备『共生型异质物』来增强实力，是很有必要的。</t>
-  </si>
-  <si>
-    <t>那我该去哪里收集呢？</t>
-  </si>
-  <si>
-    <t>STS将出现『共生型异质物』的地方归类于巢变反应的一种，代号为“N”。这种存在『共生型异质物』的巢，很早就被发现并且里面异质物的危险等级很高。</t>
+    <t>{#杜衡紧张动作恢复}昭离公馆以及全世界范围内的STS都会用这种『共生型异质物』来为收容的异质物们增强力量。</t>
+  </si>
+  <si>
+    <t>从目前掌握的信息来看，我们即将面对的敌人们已经掌握了这种技术，</t>
+  </si>
+  <si>
+    <t>因此，不断扩充和储备『共生型异质物』来增强实力，是很有必要的。</t>
+  </si>
+  <si>
+    <t>{#杜衡看文件动作}那我该去哪里收集呢？</t>
+  </si>
+  <si>
+    <t>STS将出现『共生型异质物』的地方归类于巢变反应的一种，代号为“N”。</t>
+  </si>
+  <si>
+    <t>这种存在『共生型异质物』的巢，很早就被发现并且里面异质物的危险等级很高。</t>
   </si>
   <si>
     <t>因为他们都有共生型的关系吗？</t>
   </si>
   <si>
-    <t>蛮聪明的嘛，不过你不用担心，安江市所有的"N"都已经在管控范围内，不会出现大规模危害。</t>
-  </si>
-  <si>
-    <t>现在你需要去的地方，是天目剧院。考虑到这是你的第一次『共生型异质物』任务，所以也算是熟悉的老地方了。</t>
-  </si>
-  <si>
-    <t>加油，等你的好消息哦。</t>
+    <t>{#杜衡看文件动作恢复}蛮聪明的嘛，不过你不用担心，安江市所有的"N"都已经在管控范围内，不会出现大规模危害。</t>
+  </si>
+  <si>
+    <t>现在你需要去的地方，是天目剧院。</t>
+  </si>
+  <si>
+    <t>考虑到这是你的第一次『共生型异质物』任务，所以也算是熟悉的老地方了。</t>
+  </si>
+  <si>
+    <t>加油，等你的好消息哦。{#杜衡送客动作}</t>
   </si>
   <si>
     <t>{music=off}</t>
@@ -411,7 +423,7 @@
     <t>pos=中</t>
   </si>
   <si>
-    <t>啊哈~故地重游的感觉，心里真是五味杂陈呢喵。</t>
+    <t>{#聂飞严肃}啊哈~故地重游的感觉，心里真是五味杂陈呢喵。</t>
   </si>
   <si>
     <t>kaiselin02</t>
@@ -420,16 +432,22 @@
     <t>pos=右</t>
   </si>
   <si>
-    <t>好了，别忘了我们这次是带着新任务来的。走吧。</t>
-  </si>
-  <si>
-    <t>面前就有一个敌人！干他！</t>
+    <t>{#凯瑟琳2严肃动作}好了，别忘了我们这次是带着新任务来的。走吧。</t>
+  </si>
+  <si>
+    <t>{#聂飞军体拳}面前就有一个敌人！干他！</t>
   </si>
   <si>
     <t>是否回到天目剧院大厅？</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>$$</t>
     </r>
     <r>
@@ -1370,6 +1388,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1378,9 +1399,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1732,9 +1750,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -1782,25 +1800,25 @@
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="14" t="e">
-        <f ca="1">INDEX($D$5:$D$807,CELL("row")-4)</f>
-        <v>#VALUE!</v>
+      <c r="D2" s="14" t="str">
+        <f ca="1">INDEX($D$5:$D$811,CELL("row")-4)</f>
+        <v>角色台词</v>
       </c>
       <c r="E2" s="15" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="F2" s="15" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="G2" s="16" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="H2" s="16" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>6</v>
@@ -1989,7 +2007,7 @@
       <c r="E11" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="41" t="s">
         <v>30</v>
       </c>
       <c r="G11" s="9"/>
@@ -2000,22 +2018,22 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="41"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="27"/>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="43" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="27"/>
-      <c r="H12" s="43"/>
+      <c r="H12" s="44"/>
       <c r="I12" s="10"/>
     </row>
     <row r="13" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A13" s="27">
-        <f t="shared" ref="A13:A25" si="1">ROW()-6</f>
+        <f t="shared" ref="A13:A17" si="1">ROW()-6</f>
         <v>7</v>
       </c>
       <c r="B13" s="10"/>
@@ -2026,7 +2044,7 @@
       <c r="E13" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="41" t="s">
         <v>33</v>
       </c>
       <c r="G13" s="9"/>
@@ -2045,7 +2063,7 @@
       <c r="E14" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="41" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="9"/>
@@ -2064,7 +2082,7 @@
       <c r="E15" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="41" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="9"/>
@@ -2083,7 +2101,7 @@
       <c r="E16" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="41" t="s">
         <v>37</v>
       </c>
       <c r="G16" s="9"/>
@@ -2102,7 +2120,7 @@
       <c r="E17" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="41" t="s">
         <v>38</v>
       </c>
       <c r="G17" s="9"/>
@@ -2110,7 +2128,7 @@
     </row>
     <row r="18" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A18" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A18:A21" si="2">ROW()-6</f>
         <v>12</v>
       </c>
       <c r="B18" s="10"/>
@@ -2121,7 +2139,7 @@
       <c r="E18" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="41" t="s">
         <v>39</v>
       </c>
       <c r="G18" s="9"/>
@@ -2129,7 +2147,7 @@
     </row>
     <row r="19" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A19" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B19" s="10"/>
@@ -2140,7 +2158,7 @@
       <c r="E19" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="41" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="9"/>
@@ -2148,7 +2166,7 @@
     </row>
     <row r="20" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A20" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B20" s="10"/>
@@ -2157,9 +2175,9 @@
         <v>28</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="41" t="s">
         <v>41</v>
       </c>
       <c r="G20" s="9"/>
@@ -2167,7 +2185,7 @@
     </row>
     <row r="21" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A21" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B21" s="10"/>
@@ -2178,7 +2196,7 @@
       <c r="E21" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="41" t="s">
         <v>42</v>
       </c>
       <c r="G21" s="9"/>
@@ -2186,7 +2204,7 @@
     </row>
     <row r="22" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A22" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A22:A24" si="3">ROW()-6</f>
         <v>16</v>
       </c>
       <c r="B22" s="10"/>
@@ -2197,7 +2215,7 @@
       <c r="E22" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="41" t="s">
         <v>43</v>
       </c>
       <c r="G22" s="9"/>
@@ -2205,7 +2223,7 @@
     </row>
     <row r="23" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A23" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B23" s="10"/>
@@ -2216,7 +2234,7 @@
       <c r="E23" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="41" t="s">
         <v>44</v>
       </c>
       <c r="G23" s="9"/>
@@ -2224,7 +2242,7 @@
     </row>
     <row r="24" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A24" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B24" s="10"/>
@@ -2235,7 +2253,7 @@
       <c r="E24" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="41" t="s">
         <v>45</v>
       </c>
       <c r="G24" s="9"/>
@@ -2243,7 +2261,7 @@
     </row>
     <row r="25" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A25" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A25:A28" si="4">ROW()-6</f>
         <v>19</v>
       </c>
       <c r="B25" s="10"/>
@@ -2252,9 +2270,9 @@
         <v>28</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="41" t="s">
         <v>46</v>
       </c>
       <c r="G25" s="9"/>
@@ -2262,7 +2280,7 @@
     </row>
     <row r="26" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A26" s="27">
-        <f>ROW()-6</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B26" s="10"/>
@@ -2270,147 +2288,171 @@
       <c r="D26" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="28" t="s">
+      <c r="E26" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="41" t="s">
         <v>47</v>
       </c>
       <c r="G26" s="9"/>
       <c r="J26" s="32"/>
     </row>
-    <row r="27" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="27" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A27" s="27">
-        <f>ROW()-6</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="7">
-        <v>1</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="J27" s="32"/>
+    </row>
+    <row r="28" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A28" s="27">
-        <f>ROW()-6</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="7">
-        <v>1</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="J28" s="32"/>
+    </row>
+    <row r="29" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A29" s="27">
         <f>ROW()-6</f>
         <v>23</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="7">
-        <v>1</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="J29" s="32"/>
+    </row>
+    <row r="30" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A30" s="27">
-        <f t="shared" ref="A30:A45" si="2">ROW()-6</f>
+        <f>ROW()-6</f>
         <v>24</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="J30" s="8"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="J30" s="32"/>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A31" s="27">
-        <f t="shared" si="2"/>
+        <f>ROW()-6</f>
         <v>25</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
       <c r="G31" s="6"/>
       <c r="J31" s="8"/>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A32" s="27">
-        <f t="shared" si="2"/>
+        <f>ROW()-6</f>
         <v>26</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
       <c r="G32" s="6"/>
       <c r="J32" s="8"/>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A33" s="27">
-        <f t="shared" si="2"/>
+        <f>ROW()-6</f>
         <v>27</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
+      <c r="D33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1</v>
+      </c>
       <c r="G33" s="6"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" s="2" customFormat="1" ht="11.25" spans="1:10">
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A34" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A34:A49" si="5">ROW()-6</f>
         <v>28</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
+      <c r="F34" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="G34" s="6"/>
       <c r="J34" s="8"/>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A35" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="B35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -2420,7 +2462,7 @@
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A36" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B36" s="5"/>
@@ -2433,7 +2475,7 @@
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A37" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B37" s="5"/>
@@ -2444,9 +2486,9 @@
       <c r="G37" s="6"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="38" s="2" customFormat="1" ht="11.25" spans="1:10">
       <c r="A38" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B38" s="5"/>
@@ -2457,9 +2499,9 @@
       <c r="G38" s="6"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" s="2" customFormat="1" ht="11.25" spans="1:10">
+    <row r="39" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A39" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B39" s="5"/>
@@ -2472,7 +2514,7 @@
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A40" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B40" s="5"/>
@@ -2485,7 +2527,7 @@
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A41" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B41" s="5"/>
@@ -2498,7 +2540,7 @@
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A42" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B42" s="5"/>
@@ -2509,22 +2551,22 @@
       <c r="G42" s="6"/>
       <c r="J42" s="8"/>
     </row>
-    <row r="43" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="43" s="2" customFormat="1" ht="11.25" spans="1:10">
       <c r="A43" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="9"/>
+      <c r="E43" s="6"/>
       <c r="F43" s="7"/>
       <c r="G43" s="6"/>
       <c r="J43" s="8"/>
     </row>
     <row r="44" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A44" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="B44" s="5"/>
@@ -2537,16 +2579,68 @@
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A45" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="B45" s="7"/>
+      <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
       <c r="G45" s="6"/>
       <c r="J45" s="8"/>
+    </row>
+    <row r="46" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A46" s="27">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="6"/>
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A47" s="27">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="6"/>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A48" s="27">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="6"/>
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A49" s="27">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="6"/>
+      <c r="J49" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2563,7 +2657,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -2610,25 +2704,25 @@
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="14" t="e">
+      <c r="D2" s="14">
         <f ca="1">INDEX($D$5:$D$789,CELL("row")-4)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="E2" s="15" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="F2" s="15" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="G2" s="16" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="H2" s="16" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>6</v>
@@ -2716,7 +2810,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="27">
-        <f>ROW()-6</f>
+        <f t="shared" ref="A6:A12" si="0">ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2725,7 +2819,7 @@
     </row>
     <row r="7" customHeight="1" spans="1:8">
       <c r="A7" s="27">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -2742,19 +2836,19 @@
     </row>
     <row r="8" s="33" customFormat="1" ht="11.25" spans="1:9">
       <c r="A8" s="34">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B8" s="35"/>
       <c r="C8" s="34"/>
       <c r="D8" s="36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G8" s="36"/>
       <c r="H8" s="38"/>
@@ -2762,7 +2856,7 @@
     </row>
     <row r="9" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A9" s="27">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B9" s="10"/>
@@ -2771,29 +2865,29 @@
         <v>28</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G9" s="9"/>
       <c r="J9" s="32"/>
     </row>
     <row r="10" s="33" customFormat="1" ht="11.25" spans="1:9">
       <c r="A10" s="34">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="34"/>
       <c r="D10" s="36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G10" s="36"/>
       <c r="H10" s="38"/>
@@ -2801,7 +2895,7 @@
     </row>
     <row r="11" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A11" s="27">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B11" s="10"/>
@@ -2810,117 +2904,117 @@
         <v>28</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G11" s="9"/>
       <c r="J11" s="32"/>
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="27">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="27">
-        <f t="shared" ref="A13:A27" si="0">ROW()-6</f>
+        <f t="shared" ref="A13:A27" si="1">ROW()-6</f>
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:1">
       <c r="A14" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:1">
       <c r="A15" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="13.5" spans="1:1">
       <c r="A16" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
       <c r="A17" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:1">
       <c r="A18" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:1">
       <c r="A19" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:1">
       <c r="A20" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
     <row r="21" ht="13.5" spans="1:1">
       <c r="A21" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:1">
       <c r="A22" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:1">
       <c r="A23" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:1">
       <c r="A24" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:5">
       <c r="A25" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="E25" s="9"/>
     </row>
     <row r="26" customHeight="1" spans="1:1">
       <c r="A26" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
       <c r="A27" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B27" s="7"/>
@@ -2938,13 +3032,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -2991,25 +3085,25 @@
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="14" t="e">
+      <c r="D2" s="14">
         <f ca="1">INDEX($D$5:$D$787,CELL("row")-4)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="E2" s="15" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="F2" s="15" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="G2" s="16" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="H2" s="16" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>6</v>
@@ -3129,13 +3223,13 @@
       <c r="B8" s="35"/>
       <c r="C8" s="34"/>
       <c r="D8" s="36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G8" s="36"/>
       <c r="H8" s="38"/>
@@ -3152,10 +3246,10 @@
         <v>28</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G9" s="9"/>
       <c r="J9" s="32"/>
@@ -3166,10 +3260,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
@@ -3178,7 +3272,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:1">
@@ -3284,7 +3378,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -3331,25 +3425,25 @@
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="14" t="e">
+      <c r="D2" s="14">
         <f ca="1">INDEX($D$5:$D$790,CELL("row")-4)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="E2" s="15" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="F2" s="15" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="G2" s="16" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="H2" s="16" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>6</v>
@@ -3480,7 +3574,7 @@
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="28" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G8" s="9"/>
       <c r="J8" s="32"/>
@@ -3497,7 +3591,7 @@
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="30" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G9" s="9"/>
       <c r="J9" s="32"/>
@@ -3514,7 +3608,7 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="28" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G10" s="9"/>
       <c r="J10" s="32"/>
@@ -3525,7 +3619,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C11" s="5"/>
       <c r="F11" s="7"/>
@@ -3540,10 +3634,10 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="6"/>
@@ -3557,11 +3651,11 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G13" s="6"/>
       <c r="J13" s="8"/>
@@ -3572,7 +3666,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>

--- a/mobi_client/mobi_client/mobi_config/excel/AVGScripts/迷宫副本/2 天目剧院.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/AVGScripts/迷宫副本/2 天目剧院.xlsx
@@ -366,7 +366,7 @@
     <t>{#杜衡紧张动作}是一种需要宿主才能发挥出力量的异质物，之前遇到过的水晶和超感头环，</t>
   </si>
   <si>
-    <t>都属于『共生型异质物』的范畴。</t>
+    <t>都属于『共生型异质物』的范畴。{&amp;共生型异质物}</t>
   </si>
   <si>
     <t>在他们与选择的宿主共生后，也能大幅提高宿主的能力。</t>
@@ -1753,7 +1753,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="25" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A25" s="27">
-        <f t="shared" ref="A25:A28" si="4">ROW()-6</f>
+        <f t="shared" ref="A25:A33" si="4">ROW()-6</f>
         <v>19</v>
       </c>
       <c r="B25" s="10"/>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="29" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A29" s="27">
-        <f>ROW()-6</f>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B29" s="10"/>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="30" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A30" s="27">
-        <f>ROW()-6</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B30" s="10"/>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A31" s="27">
-        <f>ROW()-6</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B31" s="5"/>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A32" s="27">
-        <f>ROW()-6</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B32" s="5"/>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A33" s="27">
-        <f>ROW()-6</f>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B33" s="5"/>
